--- a/Competitive Programming.xlsx
+++ b/Competitive Programming.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWRAJ KANT SHARMA\Desktop\Practice_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDF6CD8-BB55-49C0-B51A-8F0D95EEDCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608A1280-E04E-46DF-9493-C498F8B82D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="830" xr2:uid="{676E50BF-78A7-4A83-A081-539C5922F240}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="225">
   <si>
     <t>Tiling Problem -1 (Introductory Problem) (1d-dp)</t>
   </si>
@@ -367,22 +367,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">                                                                                                                   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CM- Graph</t>
-    </r>
-  </si>
-  <si>
     <t>Game Routes (CSES)</t>
   </si>
   <si>
@@ -546,9 +530,6 @@
 Iterative DFS</t>
   </si>
   <si>
-    <t>Octobor</t>
-  </si>
-  <si>
     <t>Solved</t>
   </si>
   <si>
@@ -661,9 +642,6 @@
     <t>D,E</t>
   </si>
   <si>
-    <t>September</t>
-  </si>
-  <si>
     <t>23. AtCoder Beginner Contest 225</t>
   </si>
   <si>
@@ -806,9 +784,6 @@
   </si>
   <si>
     <t>Count Subisland (Leetcode 1905)</t>
-  </si>
-  <si>
-    <t>November</t>
   </si>
   <si>
     <t>1.Codeforces Round #753 (Div. 3)</t>
@@ -878,12 +853,120 @@
   <si>
     <t>Making a Large Island (Leetcode 827)</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Minimum Spanning Tree:-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Minimum Cost to Connect All Points(Leetcode 1584</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Armchair(Codeforces)</t>
+  </si>
+  <si>
+    <t>The Sports Festival (Codeforces)</t>
+  </si>
+  <si>
+    <t>Range DP</t>
+  </si>
+  <si>
+    <t>4.November Cookoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Codechef Starter 18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Codechef Starter 17 Division 2 </t>
+  </si>
+  <si>
+    <t>Octobor- 2021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CM- Graph</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Past Contests</t>
+    </r>
+  </si>
+  <si>
+    <t>Remove Max Number of Edges to Keep Graph Fully Traversable (Leetcod 1579)</t>
+  </si>
+  <si>
+    <t>Built (Atcoder)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1022,6 +1105,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1062,7 +1152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1108,6 +1198,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1423,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139970D0-FC94-4441-AAB1-2B31146F0F0C}">
-  <dimension ref="A2:D208"/>
+  <dimension ref="A2:D224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="96" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="96" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1439,7 +1533,7 @@
   <sheetData>
     <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>73</v>
@@ -1463,7 +1557,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -1491,7 +1585,7 @@
     </row>
     <row r="11" spans="2:4" ht="21" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -1591,15 +1685,15 @@
     </row>
     <row r="31" spans="2:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B40" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
@@ -1675,20 +1769,33 @@
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
@@ -1708,17 +1815,17 @@
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.3">
@@ -1760,17 +1867,17 @@
     </row>
     <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B93" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B94" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B103" s="3" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -1810,10 +1917,10 @@
     <row r="113" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -1838,15 +1945,15 @@
     </row>
     <row r="118" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B118" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -1862,10 +1969,10 @@
     </row>
     <row r="123" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B123" s="17" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -1883,12 +1990,12 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.3">
@@ -1932,52 +2039,52 @@
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B137" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="138" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B138" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B139" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B140" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B141" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B142" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B143" s="14" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B144" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -2004,7 +2111,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -2049,73 +2156,108 @@
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B163" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B167" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="168" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B168" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C168" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="C168" s="18" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="170" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B170" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="171" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B171" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C171" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="C171" s="23" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B172" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B174" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="175" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B175" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B176" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" s="14"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="14"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" s="14"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" s="14"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" s="14"/>
+    </row>
+    <row r="184" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B184" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+    <row r="195" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>66</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B195" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B208" s="3" t="s">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B224" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2188,7 +2330,7 @@
     <hyperlink ref="B136" r:id="rId65" display="Island Perimeter(Leetcode 463)" xr:uid="{5DE2F2FA-2E17-4A52-ACD4-61B15A04A5B0}"/>
     <hyperlink ref="B137" r:id="rId66" display="Coloring a boarder(Leetcode 1034)" xr:uid="{798A1599-71F4-46B0-AD28-D83F307BE681}"/>
     <hyperlink ref="B87" r:id="rId67" xr:uid="{DD9A560B-E5C7-4E60-8446-22394935D36C}"/>
-    <hyperlink ref="B179" r:id="rId68" xr:uid="{03B006FB-BD99-49E8-B0CF-A1411CDCD75D}"/>
+    <hyperlink ref="B195" r:id="rId68" xr:uid="{03B006FB-BD99-49E8-B0CF-A1411CDCD75D}"/>
     <hyperlink ref="B160" r:id="rId69" xr:uid="{A69453EE-8300-4DB2-821E-1D1CEC03BB95}"/>
     <hyperlink ref="B161" r:id="rId70" xr:uid="{5346D678-00B2-4954-B278-FAC87EFE38AA}"/>
     <hyperlink ref="B53" r:id="rId71" xr:uid="{6FFD9D79-5FE0-4BD1-A387-04EF18E588EB}"/>
@@ -2223,9 +2365,14 @@
     <hyperlink ref="B119" r:id="rId100" xr:uid="{2D08A8B1-DB4B-4C10-BDA9-D1615E28A41C}"/>
     <hyperlink ref="B57" r:id="rId101" xr:uid="{240EF687-4797-48A5-BDB8-322085DB9E05}"/>
     <hyperlink ref="B144" r:id="rId102" xr:uid="{EB5C0E08-2956-4C6F-AA3E-F9051A79E49E}"/>
+    <hyperlink ref="B185" r:id="rId103" xr:uid="{FE7C4175-8664-4BC8-BB3D-A10DAFB881FB}"/>
+    <hyperlink ref="B58" r:id="rId104" xr:uid="{A910DE23-BFF3-41F5-938E-C364E744CD5C}"/>
+    <hyperlink ref="B59" r:id="rId105" display="The Sports Festival (Codeforces) (Range DP)" xr:uid="{F87B7743-6118-4AD4-95D1-151712A780B5}"/>
+    <hyperlink ref="B176" r:id="rId106" xr:uid="{60B3606C-6A93-40E3-A8B1-0907E1B2A430}"/>
+    <hyperlink ref="B177" r:id="rId107" xr:uid="{12124149-330B-4A67-9BED-5BA770C10CB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId103"/>
+  <pageSetup orientation="portrait" r:id="rId108"/>
 </worksheet>
 </file>
 
@@ -2287,117 +2434,117 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="27" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="27" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="27" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" s="27" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="27" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="27" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="27" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="27" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2430,10 +2577,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E089B8C-0632-4F75-963A-622517A450AC}">
-  <dimension ref="B1:E50"/>
+  <dimension ref="B1:E71"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2445,442 +2592,467 @@
     <col min="5" max="5" width="17.5546875" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+    </row>
+    <row r="19" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="26" t="s">
+    </row>
+    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B20" s="33">
+        <v>44440</v>
+      </c>
+      <c r="C20" s="29"/>
+    </row>
+    <row r="21" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C21" s="29"/>
+    </row>
+    <row r="22" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="29"/>
-    </row>
-    <row r="3" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+      <c r="C22" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="30" t="s">
+      <c r="C24" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="27" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
+      <c r="C25" s="29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+      <c r="C26" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="30" t="s">
+      <c r="C27" s="29"/>
+      <c r="E27" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="29" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="E9" s="31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="30" t="s">
+    <row r="33" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="27" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="27" t="s">
+      <c r="C33" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="27" t="s">
+      <c r="C34" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C18" s="29"/>
-    </row>
-    <row r="19" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="29"/>
-    </row>
-    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B20" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="27" t="s">
+      <c r="C35" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C39" s="30" t="s">
-        <v>131</v>
+    </row>
+    <row r="36" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C36" s="29"/>
+    </row>
+    <row r="37" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C37" s="29"/>
+    </row>
+    <row r="38" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B38" s="26" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>147</v>
+        <v>116</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>124</v>
+        <v>118</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="27" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="27" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>131</v>
+        <v>124</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="E45" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="30" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B47" s="26" t="s">
-        <v>201</v>
+      <c r="E45" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B50" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E50" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="27" t="s">
         <v>144</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B65" s="33">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1" xr:uid="{53FC2261-4DC6-418A-B4A2-EA887E0BEF29}"/>
-    <hyperlink ref="B23" r:id="rId2" xr:uid="{CD8A60CB-57A7-4392-A09B-D2DFE88ACD6B}"/>
-    <hyperlink ref="B24" r:id="rId3" xr:uid="{87257981-BCE4-4092-AB9C-EBC956B7957B}"/>
-    <hyperlink ref="B25" r:id="rId4" xr:uid="{A8A710CF-C090-47CD-BE8E-CEAC74C3B363}"/>
-    <hyperlink ref="B26" r:id="rId5" xr:uid="{0F69CFC5-0B24-4F31-B875-891BA890CE62}"/>
-    <hyperlink ref="B27" r:id="rId6" xr:uid="{FE4A0414-85E4-4D8E-8AA1-8E8CE82C5573}"/>
-    <hyperlink ref="B28" r:id="rId7" xr:uid="{F9432807-241D-408F-9E48-EC70CB0E724D}"/>
-    <hyperlink ref="B29" r:id="rId8" xr:uid="{D96BBD97-8858-43CC-A927-9B77FAC6F5D5}"/>
-    <hyperlink ref="B30" r:id="rId9" xr:uid="{CC2354DC-E4A0-4E70-92DA-48750C9F89BB}"/>
-    <hyperlink ref="B31" r:id="rId10" xr:uid="{3DA376CC-B235-4B83-AC56-237C9EF9A5F4}"/>
-    <hyperlink ref="B32" r:id="rId11" xr:uid="{403269C5-7867-45F9-BA7A-F90CFCAC358D}"/>
-    <hyperlink ref="B33" r:id="rId12" xr:uid="{D9C3A7B9-EDC0-40DF-A452-33CFDC5DD3FA}"/>
-    <hyperlink ref="B34" r:id="rId13" xr:uid="{0A5C369A-6A06-4B15-B079-1C907BAA529F}"/>
-    <hyperlink ref="B35" r:id="rId14" xr:uid="{3704B0EE-DB23-4B17-BFDA-9014E28D1CEC}"/>
-    <hyperlink ref="B36" r:id="rId15" xr:uid="{72A5E5D8-6507-490D-8BD7-AE0EABF8EFFC}"/>
-    <hyperlink ref="B37" r:id="rId16" xr:uid="{522423DB-F5EA-4B81-92C4-EA5C8EEE055B}"/>
-    <hyperlink ref="B38" r:id="rId17" xr:uid="{67DD3FEC-96DA-4BD5-8CE8-9F197FE9FDBA}"/>
-    <hyperlink ref="B39" r:id="rId18" xr:uid="{A0B571CF-9EF8-43F8-8AA7-5B83EAD52D8E}"/>
-    <hyperlink ref="B40" r:id="rId19" xr:uid="{E567466E-CF0D-43B4-94FD-34B7962C73B4}"/>
-    <hyperlink ref="B41" r:id="rId20" xr:uid="{590B751E-A765-4E7A-B649-23BA933BC046}"/>
-    <hyperlink ref="B42" r:id="rId21" xr:uid="{EF49782F-5874-405A-B249-5FC8371DF888}"/>
-    <hyperlink ref="B43" r:id="rId22" xr:uid="{E602BFB8-0FB8-4522-BEC6-A5301D8422E2}"/>
-    <hyperlink ref="B44" r:id="rId23" xr:uid="{3B849A02-5868-49CF-9AFB-C7C9781E2137}"/>
-    <hyperlink ref="B45" r:id="rId24" xr:uid="{FDC5FB9D-BBD7-4925-8EC0-1D64C64D891A}"/>
-    <hyperlink ref="B4" r:id="rId25" xr:uid="{1CB81E1B-9FF6-49C1-AB2D-84C1C39E735C}"/>
-    <hyperlink ref="B5" r:id="rId26" xr:uid="{5C88A43D-57AA-4D9B-8906-36DEAC2F704D}"/>
-    <hyperlink ref="B6" r:id="rId27" xr:uid="{F528A1B2-1F97-477C-97BC-2E458F2821D6}"/>
-    <hyperlink ref="B7" r:id="rId28" xr:uid="{0985B0BD-1BFB-4F6C-9692-4A76A59AA360}"/>
-    <hyperlink ref="B8" r:id="rId29" xr:uid="{69C2CD9D-3EE9-4034-AE6D-526C49477F40}"/>
-    <hyperlink ref="B9" r:id="rId30" xr:uid="{BF9CAD75-1E6D-4F26-BA76-9ADF79F98A82}"/>
-    <hyperlink ref="B10" r:id="rId31" xr:uid="{FA29263D-C230-48DA-AB3C-FCC1400DA5BF}"/>
-    <hyperlink ref="B11" r:id="rId32" xr:uid="{3A540905-0853-4F11-9C07-8562940567F8}"/>
-    <hyperlink ref="B12" r:id="rId33" xr:uid="{0AC8715E-3935-4B3B-8F11-C4E9A44A3E17}"/>
-    <hyperlink ref="B13" r:id="rId34" xr:uid="{D3E09672-ED99-4BCE-A3F7-FF37E207401C}"/>
-    <hyperlink ref="B14" r:id="rId35" xr:uid="{343FEB2E-1B29-46D6-ABA1-D98D58497121}"/>
-    <hyperlink ref="B15" r:id="rId36" xr:uid="{E7C3DCBD-E1E6-4646-AA98-0C638939AC61}"/>
-    <hyperlink ref="B16" r:id="rId37" xr:uid="{9CF90CAC-9EC1-45BB-902D-4826927BF0DA}"/>
-    <hyperlink ref="B17" r:id="rId38" xr:uid="{27D33285-9EF0-456B-9B9D-1EA1D801235D}"/>
-    <hyperlink ref="B49" r:id="rId39" xr:uid="{BD27887B-01B6-42D2-B5B9-950589C84620}"/>
-    <hyperlink ref="B50" r:id="rId40" xr:uid="{B732E46B-5D11-4E17-B216-106F8DFD2B07}"/>
+    <hyperlink ref="B40" r:id="rId1" xr:uid="{53FC2261-4DC6-418A-B4A2-EA887E0BEF29}"/>
+    <hyperlink ref="B41" r:id="rId2" xr:uid="{CD8A60CB-57A7-4392-A09B-D2DFE88ACD6B}"/>
+    <hyperlink ref="B42" r:id="rId3" xr:uid="{87257981-BCE4-4092-AB9C-EBC956B7957B}"/>
+    <hyperlink ref="B43" r:id="rId4" xr:uid="{A8A710CF-C090-47CD-BE8E-CEAC74C3B363}"/>
+    <hyperlink ref="B44" r:id="rId5" xr:uid="{0F69CFC5-0B24-4F31-B875-891BA890CE62}"/>
+    <hyperlink ref="B45" r:id="rId6" xr:uid="{FE4A0414-85E4-4D8E-8AA1-8E8CE82C5573}"/>
+    <hyperlink ref="B46" r:id="rId7" xr:uid="{F9432807-241D-408F-9E48-EC70CB0E724D}"/>
+    <hyperlink ref="B47" r:id="rId8" xr:uid="{D96BBD97-8858-43CC-A927-9B77FAC6F5D5}"/>
+    <hyperlink ref="B48" r:id="rId9" xr:uid="{CC2354DC-E4A0-4E70-92DA-48750C9F89BB}"/>
+    <hyperlink ref="B49" r:id="rId10" xr:uid="{3DA376CC-B235-4B83-AC56-237C9EF9A5F4}"/>
+    <hyperlink ref="B50" r:id="rId11" xr:uid="{403269C5-7867-45F9-BA7A-F90CFCAC358D}"/>
+    <hyperlink ref="B51" r:id="rId12" xr:uid="{D9C3A7B9-EDC0-40DF-A452-33CFDC5DD3FA}"/>
+    <hyperlink ref="B52" r:id="rId13" xr:uid="{0A5C369A-6A06-4B15-B079-1C907BAA529F}"/>
+    <hyperlink ref="B53" r:id="rId14" xr:uid="{3704B0EE-DB23-4B17-BFDA-9014E28D1CEC}"/>
+    <hyperlink ref="B54" r:id="rId15" xr:uid="{72A5E5D8-6507-490D-8BD7-AE0EABF8EFFC}"/>
+    <hyperlink ref="B55" r:id="rId16" xr:uid="{522423DB-F5EA-4B81-92C4-EA5C8EEE055B}"/>
+    <hyperlink ref="B56" r:id="rId17" xr:uid="{67DD3FEC-96DA-4BD5-8CE8-9F197FE9FDBA}"/>
+    <hyperlink ref="B57" r:id="rId18" xr:uid="{A0B571CF-9EF8-43F8-8AA7-5B83EAD52D8E}"/>
+    <hyperlink ref="B58" r:id="rId19" xr:uid="{E567466E-CF0D-43B4-94FD-34B7962C73B4}"/>
+    <hyperlink ref="B59" r:id="rId20" xr:uid="{590B751E-A765-4E7A-B649-23BA933BC046}"/>
+    <hyperlink ref="B60" r:id="rId21" xr:uid="{EF49782F-5874-405A-B249-5FC8371DF888}"/>
+    <hyperlink ref="B61" r:id="rId22" xr:uid="{E602BFB8-0FB8-4522-BEC6-A5301D8422E2}"/>
+    <hyperlink ref="B62" r:id="rId23" xr:uid="{3B849A02-5868-49CF-9AFB-C7C9781E2137}"/>
+    <hyperlink ref="B63" r:id="rId24" xr:uid="{FDC5FB9D-BBD7-4925-8EC0-1D64C64D891A}"/>
+    <hyperlink ref="B22" r:id="rId25" xr:uid="{1CB81E1B-9FF6-49C1-AB2D-84C1C39E735C}"/>
+    <hyperlink ref="B23" r:id="rId26" xr:uid="{5C88A43D-57AA-4D9B-8906-36DEAC2F704D}"/>
+    <hyperlink ref="B24" r:id="rId27" xr:uid="{F528A1B2-1F97-477C-97BC-2E458F2821D6}"/>
+    <hyperlink ref="B25" r:id="rId28" xr:uid="{0985B0BD-1BFB-4F6C-9692-4A76A59AA360}"/>
+    <hyperlink ref="B26" r:id="rId29" xr:uid="{69C2CD9D-3EE9-4034-AE6D-526C49477F40}"/>
+    <hyperlink ref="B27" r:id="rId30" xr:uid="{BF9CAD75-1E6D-4F26-BA76-9ADF79F98A82}"/>
+    <hyperlink ref="B28" r:id="rId31" xr:uid="{FA29263D-C230-48DA-AB3C-FCC1400DA5BF}"/>
+    <hyperlink ref="B29" r:id="rId32" xr:uid="{3A540905-0853-4F11-9C07-8562940567F8}"/>
+    <hyperlink ref="B30" r:id="rId33" xr:uid="{0AC8715E-3935-4B3B-8F11-C4E9A44A3E17}"/>
+    <hyperlink ref="B31" r:id="rId34" xr:uid="{D3E09672-ED99-4BCE-A3F7-FF37E207401C}"/>
+    <hyperlink ref="B32" r:id="rId35" xr:uid="{343FEB2E-1B29-46D6-ABA1-D98D58497121}"/>
+    <hyperlink ref="B33" r:id="rId36" xr:uid="{E7C3DCBD-E1E6-4646-AA98-0C638939AC61}"/>
+    <hyperlink ref="B34" r:id="rId37" xr:uid="{9CF90CAC-9EC1-45BB-902D-4826927BF0DA}"/>
+    <hyperlink ref="B35" r:id="rId38" xr:uid="{27D33285-9EF0-456B-9B9D-1EA1D801235D}"/>
+    <hyperlink ref="B67" r:id="rId39" xr:uid="{BD27887B-01B6-42D2-B5B9-950589C84620}"/>
+    <hyperlink ref="B68" r:id="rId40" xr:uid="{B732E46B-5D11-4E17-B216-106F8DFD2B07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId41"/>

--- a/Competitive Programming.xlsx
+++ b/Competitive Programming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWRAJ KANT SHARMA\Desktop\Practice_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608A1280-E04E-46DF-9493-C498F8B82D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CFF88D-5F90-482F-8C41-6D9E0D9406B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="830" xr2:uid="{676E50BF-78A7-4A83-A081-539C5922F240}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="228">
   <si>
     <t>Tiling Problem -1 (Introductory Problem) (1d-dp)</t>
   </si>
@@ -960,6 +960,28 @@
   </si>
   <si>
     <t>Built (Atcoder)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shortest Path Algorithm:-</t>
+    </r>
+  </si>
+  <si>
+    <t>Netwrok Delay Time (Leetcode 743)</t>
+  </si>
+  <si>
+    <t>Crazy Robot (Codeforces)</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1138,6 +1160,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1152,7 +1180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1202,6 +1230,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1519,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139970D0-FC94-4441-AAB1-2B31146F0F0C}">
   <dimension ref="A2:D224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="96" workbookViewId="0">
-      <selection activeCell="B180" sqref="B180"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="96" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2088,7 +2117,10 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B145" s="32"/>
+      <c r="A145" s="37"/>
+      <c r="B145" s="12" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B146" s="32"/>
@@ -2241,6 +2273,16 @@
     <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" s="34" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B189" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" s="8" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -2370,9 +2412,11 @@
     <hyperlink ref="B59" r:id="rId105" display="The Sports Festival (Codeforces) (Range DP)" xr:uid="{F87B7743-6118-4AD4-95D1-151712A780B5}"/>
     <hyperlink ref="B176" r:id="rId106" xr:uid="{60B3606C-6A93-40E3-A8B1-0907E1B2A430}"/>
     <hyperlink ref="B177" r:id="rId107" xr:uid="{12124149-330B-4A67-9BED-5BA770C10CB8}"/>
+    <hyperlink ref="B190" r:id="rId108" xr:uid="{F2B738E2-52DE-42B0-A3D9-D08E0BCB9432}"/>
+    <hyperlink ref="B145" r:id="rId109" xr:uid="{88355B46-960B-4C80-92E6-74155AE1846F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId108"/>
+  <pageSetup orientation="portrait" r:id="rId110"/>
 </worksheet>
 </file>
 

--- a/Competitive Programming.xlsx
+++ b/Competitive Programming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWRAJ KANT SHARMA\Desktop\Practice_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CFF88D-5F90-482F-8C41-6D9E0D9406B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C71180C-5C78-45DD-B775-F731F7F1F823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="830" xr2:uid="{676E50BF-78A7-4A83-A081-539C5922F240}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="230">
   <si>
     <t>Tiling Problem -1 (Introductory Problem) (1d-dp)</t>
   </si>
@@ -982,6 +982,25 @@
   </si>
   <si>
     <t>Crazy Robot (Codeforces)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>December - 2021</t>
+    </r>
+  </si>
+  <si>
+    <t>Find Best Path (CodeChef)</t>
   </si>
 </sst>
 </file>
@@ -1548,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139970D0-FC94-4441-AAB1-2B31146F0F0C}">
   <dimension ref="A2:D224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="96" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="96" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2283,6 +2302,11 @@
     <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" s="8" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="11" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -2414,9 +2438,10 @@
     <hyperlink ref="B177" r:id="rId107" xr:uid="{12124149-330B-4A67-9BED-5BA770C10CB8}"/>
     <hyperlink ref="B190" r:id="rId108" xr:uid="{F2B738E2-52DE-42B0-A3D9-D08E0BCB9432}"/>
     <hyperlink ref="B145" r:id="rId109" xr:uid="{88355B46-960B-4C80-92E6-74155AE1846F}"/>
+    <hyperlink ref="B191" r:id="rId110" xr:uid="{5CD1160D-341E-4791-BACA-3F9092182144}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId110"/>
+  <pageSetup orientation="portrait" r:id="rId111"/>
 </worksheet>
 </file>
 
@@ -2621,10 +2646,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E089B8C-0632-4F75-963A-622517A450AC}">
-  <dimension ref="B1:E71"/>
+  <dimension ref="B1:E83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3053,6 +3078,11 @@
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B83" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/Competitive Programming.xlsx
+++ b/Competitive Programming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWRAJ KANT SHARMA\Desktop\Practice_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C71180C-5C78-45DD-B775-F731F7F1F823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC36424-1599-4C8A-8825-AA511C199997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="830" xr2:uid="{676E50BF-78A7-4A83-A081-539C5922F240}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="232">
   <si>
     <t>Tiling Problem -1 (Introductory Problem) (1d-dp)</t>
   </si>
@@ -1001,6 +1001,12 @@
   </si>
   <si>
     <t>Find Best Path (CodeChef)</t>
+  </si>
+  <si>
+    <t>Unstable String (Codeforces)</t>
+  </si>
+  <si>
+    <t>Top-Down DP</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1250,6 +1256,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1567,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139970D0-FC94-4441-AAB1-2B31146F0F0C}">
   <dimension ref="A2:D224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="96" workbookViewId="0">
-      <selection activeCell="B193" sqref="B193"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="96" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1844,6 +1851,14 @@
       </c>
       <c r="C59" s="3" t="s">
         <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
@@ -2439,9 +2454,10 @@
     <hyperlink ref="B190" r:id="rId108" xr:uid="{F2B738E2-52DE-42B0-A3D9-D08E0BCB9432}"/>
     <hyperlink ref="B145" r:id="rId109" xr:uid="{88355B46-960B-4C80-92E6-74155AE1846F}"/>
     <hyperlink ref="B191" r:id="rId110" xr:uid="{5CD1160D-341E-4791-BACA-3F9092182144}"/>
+    <hyperlink ref="B60" r:id="rId111" xr:uid="{1D03A4E8-7951-4D73-BB77-6A13B5073ABD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId111"/>
+  <pageSetup orientation="portrait" r:id="rId112"/>
 </worksheet>
 </file>
 

--- a/Competitive Programming.xlsx
+++ b/Competitive Programming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWRAJ KANT SHARMA\Desktop\Practice_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC36424-1599-4C8A-8825-AA511C199997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938F23F3-0D62-44E0-98F6-A243764ACA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="830" xr2:uid="{676E50BF-78A7-4A83-A081-539C5922F240}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="236">
   <si>
     <t>Tiling Problem -1 (Introductory Problem) (1d-dp)</t>
   </si>
@@ -1007,6 +1007,18 @@
   </si>
   <si>
     <t>Top-Down DP</t>
+  </si>
+  <si>
+    <t>Min Cost Path (GFG)</t>
+  </si>
+  <si>
+    <t>Cheapest Flights Within K Stops (Leetcode 787)</t>
+  </si>
+  <si>
+    <t>Find the City With the Smallest Number of Neighbors at a Threshold Distance(Leetcode 1334)</t>
+  </si>
+  <si>
+    <t>Travel By Car(Atcoder)</t>
   </si>
 </sst>
 </file>
@@ -1572,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139970D0-FC94-4441-AAB1-2B31146F0F0C}">
-  <dimension ref="A2:D224"/>
+  <dimension ref="A2:D228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="96" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="96" workbookViewId="0">
+      <selection activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2324,21 +2336,44 @@
         <v>229</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B193" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B194" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B196" s="14"/>
+    </row>
+    <row r="198" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+    <row r="199" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>66</v>
       </c>
-      <c r="B195" s="10" t="s">
+      <c r="B199" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B224" s="3" t="s">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B228" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2383,7 +2418,7 @@
     <hyperlink ref="B45" r:id="rId37" xr:uid="{1B7443A9-CFAF-45E5-A78B-36BFE340A8A4}"/>
     <hyperlink ref="C45" r:id="rId38" xr:uid="{4F1016AC-FADB-4CAE-96D5-59AB72F19D2C}"/>
     <hyperlink ref="B114" r:id="rId39" xr:uid="{7133A624-41D7-44AF-9E6F-9E274DB9BB20}"/>
-    <hyperlink ref="B115" r:id="rId40" location="questions" xr:uid="{828115FF-76E7-4287-96EE-64E4C8890506}"/>
+    <hyperlink ref="B115" r:id="rId40" xr:uid="{828115FF-76E7-4287-96EE-64E4C8890506}"/>
     <hyperlink ref="B116" r:id="rId41" xr:uid="{F64D5C1D-C62C-41AE-B585-653E7D0E5398}"/>
     <hyperlink ref="B126" r:id="rId42" xr:uid="{BDFE4FA6-2B07-46FB-96D6-C71D62BF5402}"/>
     <hyperlink ref="B128" r:id="rId43" display="Largest Island (DFS)" xr:uid="{0D87E924-D559-4178-88E9-C24F43296D3B}"/>
@@ -2411,7 +2446,7 @@
     <hyperlink ref="B136" r:id="rId65" display="Island Perimeter(Leetcode 463)" xr:uid="{5DE2F2FA-2E17-4A52-ACD4-61B15A04A5B0}"/>
     <hyperlink ref="B137" r:id="rId66" display="Coloring a boarder(Leetcode 1034)" xr:uid="{798A1599-71F4-46B0-AD28-D83F307BE681}"/>
     <hyperlink ref="B87" r:id="rId67" xr:uid="{DD9A560B-E5C7-4E60-8446-22394935D36C}"/>
-    <hyperlink ref="B195" r:id="rId68" xr:uid="{03B006FB-BD99-49E8-B0CF-A1411CDCD75D}"/>
+    <hyperlink ref="B199" r:id="rId68" xr:uid="{03B006FB-BD99-49E8-B0CF-A1411CDCD75D}"/>
     <hyperlink ref="B160" r:id="rId69" xr:uid="{A69453EE-8300-4DB2-821E-1D1CEC03BB95}"/>
     <hyperlink ref="B161" r:id="rId70" xr:uid="{5346D678-00B2-4954-B278-FAC87EFE38AA}"/>
     <hyperlink ref="B53" r:id="rId71" xr:uid="{6FFD9D79-5FE0-4BD1-A387-04EF18E588EB}"/>
@@ -2455,9 +2490,13 @@
     <hyperlink ref="B145" r:id="rId109" xr:uid="{88355B46-960B-4C80-92E6-74155AE1846F}"/>
     <hyperlink ref="B191" r:id="rId110" xr:uid="{5CD1160D-341E-4791-BACA-3F9092182144}"/>
     <hyperlink ref="B60" r:id="rId111" xr:uid="{1D03A4E8-7951-4D73-BB77-6A13B5073ABD}"/>
+    <hyperlink ref="B192" r:id="rId112" xr:uid="{7D71B2AE-423B-4189-B6C2-0BC12E256D4C}"/>
+    <hyperlink ref="B193" r:id="rId113" xr:uid="{4DEE4EFD-F499-42AD-B94D-0D07986DD071}"/>
+    <hyperlink ref="B194" r:id="rId114" xr:uid="{EC17589B-2B9F-4F14-BE3C-872DB4035C24}"/>
+    <hyperlink ref="B195" r:id="rId115" xr:uid="{336DDC4E-26AD-451B-8AA4-0EC3B9206239}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId112"/>
+  <pageSetup orientation="portrait" r:id="rId116"/>
 </worksheet>
 </file>
 

--- a/Competitive Programming.xlsx
+++ b/Competitive Programming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWRAJ KANT SHARMA\Desktop\Practice_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938F23F3-0D62-44E0-98F6-A243764ACA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADCD4F0-1D46-4EE2-8160-FA05A91C9B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="830" xr2:uid="{676E50BF-78A7-4A83-A081-539C5922F240}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="239">
   <si>
     <t>Tiling Problem -1 (Introductory Problem) (1d-dp)</t>
   </si>
@@ -1019,6 +1019,15 @@
   </si>
   <si>
     <t>Travel By Car(Atcoder)</t>
+  </si>
+  <si>
+    <t>Multisource BFS</t>
+  </si>
+  <si>
+    <t>0-1 Matrix (Leetcode 542)</t>
+  </si>
+  <si>
+    <t>Rotting Orange (Leetcode 994)</t>
   </si>
 </sst>
 </file>
@@ -1584,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139970D0-FC94-4441-AAB1-2B31146F0F0C}">
-  <dimension ref="A2:D228"/>
+  <dimension ref="A2:D233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="96" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="96" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2051,329 +2060,354 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B124" s="14"/>
-    </row>
-    <row r="125" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+      <c r="B124" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B125" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B126" s="14"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B127" s="14"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B128" s="14"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B129" s="14"/>
+    </row>
+    <row r="130" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B126" s="8" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B131" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B127" s="8" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B132" s="8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B128" s="8" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B133" s="8" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B129" s="8" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B134" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B130" s="8" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B135" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B131" s="12" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B136" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B132" s="8" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B137" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C137" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="2:3" ht="50.4" x14ac:dyDescent="0.4">
-      <c r="B133" s="8" t="s">
+    <row r="138" spans="1:3" ht="50.4" x14ac:dyDescent="0.4">
+      <c r="B138" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C138" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B134" s="11" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B139" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C139" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B135" s="8" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B140" s="8" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B136" s="8" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B141" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B137" s="12" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B142" s="12" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="138" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B138" s="20" t="s">
+    <row r="143" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B143" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="139" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B139" s="20" t="s">
+    <row r="144" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B144" s="20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B140" s="14" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="14" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B141" s="14" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="14" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B142" s="14" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="14" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B143" s="14" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="14" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B144" s="12" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="37"/>
-      <c r="B145" s="12" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="37"/>
+      <c r="B150" s="12" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B146" s="32"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B147" s="14"/>
-    </row>
-    <row r="148" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="32"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B152" s="14"/>
+    </row>
+    <row r="153" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B149" s="15" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B154" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B150" s="14"/>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B151" s="8" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="14"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B156" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B152" s="8" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B157" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B153" s="8" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B158" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B154" s="12" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B155" s="12" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="3" t="s">
+    <row r="164" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B160" s="8" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B165" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B161" s="12" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B166" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B162" s="11" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B167" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B163" s="11" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B168" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B167" s="3" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B172" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="168" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B168" s="8" t="s">
+    <row r="173" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B173" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C168" s="18" t="s">
+      <c r="C173" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B169" s="8" t="s">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B174" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="170" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B170" s="19" t="s">
+    <row r="175" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B175" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="171" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B171" s="22" t="s">
+    <row r="176" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B176" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C171" s="23" t="s">
+      <c r="C176" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B172" s="8" t="s">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B177" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C177" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B174" s="24" t="s">
+    <row r="179" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B179" s="24" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="175" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B175" s="25" t="s">
+    <row r="180" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B180" s="25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B176" s="8" t="s">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B181" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B177" s="8" t="s">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B182" s="8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B178" s="14"/>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B179" s="14"/>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B180" s="14"/>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B181" s="14"/>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B182" s="14"/>
-    </row>
-    <row r="184" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B184" s="3" t="s">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B183" s="14"/>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B184" s="14"/>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B185" s="14"/>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B186" s="14"/>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B187" s="14"/>
+    </row>
+    <row r="189" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B189" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B185" s="34" t="s">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B190" s="34" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="189" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B189" s="3" t="s">
+    <row r="194" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B194" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B190" s="8" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B191" s="11" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B196" s="11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B192" s="8" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B197" s="8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B193" s="14" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B198" s="8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B194" s="14" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B199" s="8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B195" s="14" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B200" s="11" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B196" s="14"/>
-    </row>
-    <row r="198" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B201" s="14"/>
+    </row>
+    <row r="203" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+    <row r="204" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
         <v>66</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="B204" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B228" s="3" t="s">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B233" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2420,83 +2454,85 @@
     <hyperlink ref="B114" r:id="rId39" xr:uid="{7133A624-41D7-44AF-9E6F-9E274DB9BB20}"/>
     <hyperlink ref="B115" r:id="rId40" xr:uid="{828115FF-76E7-4287-96EE-64E4C8890506}"/>
     <hyperlink ref="B116" r:id="rId41" xr:uid="{F64D5C1D-C62C-41AE-B585-653E7D0E5398}"/>
-    <hyperlink ref="B126" r:id="rId42" xr:uid="{BDFE4FA6-2B07-46FB-96D6-C71D62BF5402}"/>
-    <hyperlink ref="B128" r:id="rId43" display="Largest Island (DFS)" xr:uid="{0D87E924-D559-4178-88E9-C24F43296D3B}"/>
-    <hyperlink ref="B130" r:id="rId44" xr:uid="{DF885FC2-02F7-4BA5-8B25-9A9438DE93AD}"/>
-    <hyperlink ref="B131" r:id="rId45" xr:uid="{3F16CC60-2B7F-4D6D-8F70-FCA77C20B6FC}"/>
-    <hyperlink ref="B149" r:id="rId46" xr:uid="{C0D5EBA8-833D-4376-A7A0-C4901F3A93BC}"/>
-    <hyperlink ref="B151" r:id="rId47" display="Course Schedule " xr:uid="{433062C0-0C45-488D-8B65-3584B6597A06}"/>
-    <hyperlink ref="B152" r:id="rId48" xr:uid="{2BCC67C3-68FB-4BDA-A903-4D75D9E5187D}"/>
-    <hyperlink ref="B154" r:id="rId49" xr:uid="{7F788B88-42B7-4553-A053-DEAEE94E1B52}"/>
-    <hyperlink ref="B153" r:id="rId50" xr:uid="{8D801D27-2D97-42AD-8627-58F5E7CB992D}"/>
-    <hyperlink ref="B155" r:id="rId51" xr:uid="{190BB666-52B8-4FD8-8751-E9055BF9B1ED}"/>
+    <hyperlink ref="B131" r:id="rId42" xr:uid="{BDFE4FA6-2B07-46FB-96D6-C71D62BF5402}"/>
+    <hyperlink ref="B133" r:id="rId43" display="Largest Island (DFS)" xr:uid="{0D87E924-D559-4178-88E9-C24F43296D3B}"/>
+    <hyperlink ref="B135" r:id="rId44" xr:uid="{DF885FC2-02F7-4BA5-8B25-9A9438DE93AD}"/>
+    <hyperlink ref="B136" r:id="rId45" xr:uid="{3F16CC60-2B7F-4D6D-8F70-FCA77C20B6FC}"/>
+    <hyperlink ref="B154" r:id="rId46" xr:uid="{C0D5EBA8-833D-4376-A7A0-C4901F3A93BC}"/>
+    <hyperlink ref="B156" r:id="rId47" display="Course Schedule " xr:uid="{433062C0-0C45-488D-8B65-3584B6597A06}"/>
+    <hyperlink ref="B157" r:id="rId48" xr:uid="{2BCC67C3-68FB-4BDA-A903-4D75D9E5187D}"/>
+    <hyperlink ref="B159" r:id="rId49" xr:uid="{7F788B88-42B7-4553-A053-DEAEE94E1B52}"/>
+    <hyperlink ref="B158" r:id="rId50" xr:uid="{8D801D27-2D97-42AD-8627-58F5E7CB992D}"/>
+    <hyperlink ref="B160" r:id="rId51" xr:uid="{190BB666-52B8-4FD8-8751-E9055BF9B1ED}"/>
     <hyperlink ref="B50" r:id="rId52" xr:uid="{0E164469-6B71-4973-ABA0-2634F0D859C9}"/>
     <hyperlink ref="B51" r:id="rId53" xr:uid="{4DE6943F-14A3-4EBE-B828-7138B0C29675}"/>
     <hyperlink ref="B52" r:id="rId54" xr:uid="{9D324F52-69A1-47C7-94FD-E32371E256E0}"/>
     <hyperlink ref="B65" r:id="rId55" xr:uid="{3FC10AA8-89B4-4A8E-8A89-90035519C7AD}"/>
-    <hyperlink ref="B132" r:id="rId56" xr:uid="{2C2E9E5C-5BF3-428C-BFF4-1A4C3266B83D}"/>
+    <hyperlink ref="B137" r:id="rId56" xr:uid="{2C2E9E5C-5BF3-428C-BFF4-1A4C3266B83D}"/>
     <hyperlink ref="B30" r:id="rId57" xr:uid="{7D4E426D-2FF9-4276-82F3-5E040D81B9CB}"/>
     <hyperlink ref="C43" r:id="rId58" xr:uid="{5355EEC8-3E21-43EE-ADD2-DF8D474C67E3}"/>
     <hyperlink ref="C7" r:id="rId59" xr:uid="{CA575981-E951-44B7-81CF-33E7103CDB71}"/>
-    <hyperlink ref="B133" r:id="rId60" xr:uid="{7F2F561A-66F1-432A-A0DF-F9D9A1A38F28}"/>
-    <hyperlink ref="B134" r:id="rId61" display="Word Search-&gt;2(Leetcode 212)" xr:uid="{0A139F23-015D-4B6A-BC5E-E2342BBCC6B4}"/>
-    <hyperlink ref="B135" r:id="rId62" display="No of Closed Island (Leetcode 1254)" xr:uid="{6B893F62-2E63-4F37-AFB3-26066A55421C}"/>
-    <hyperlink ref="B127" r:id="rId63" display="No of Islands(Leetcode 200)" xr:uid="{FC739872-F8BB-4DEA-85A5-ABEBFCC1CC2E}"/>
-    <hyperlink ref="B129" r:id="rId64" xr:uid="{A700F524-346C-46CA-83A7-4552941B3B98}"/>
-    <hyperlink ref="B136" r:id="rId65" display="Island Perimeter(Leetcode 463)" xr:uid="{5DE2F2FA-2E17-4A52-ACD4-61B15A04A5B0}"/>
-    <hyperlink ref="B137" r:id="rId66" display="Coloring a boarder(Leetcode 1034)" xr:uid="{798A1599-71F4-46B0-AD28-D83F307BE681}"/>
+    <hyperlink ref="B138" r:id="rId60" xr:uid="{7F2F561A-66F1-432A-A0DF-F9D9A1A38F28}"/>
+    <hyperlink ref="B139" r:id="rId61" display="Word Search-&gt;2(Leetcode 212)" xr:uid="{0A139F23-015D-4B6A-BC5E-E2342BBCC6B4}"/>
+    <hyperlink ref="B140" r:id="rId62" display="No of Closed Island (Leetcode 1254)" xr:uid="{6B893F62-2E63-4F37-AFB3-26066A55421C}"/>
+    <hyperlink ref="B132" r:id="rId63" display="No of Islands(Leetcode 200)" xr:uid="{FC739872-F8BB-4DEA-85A5-ABEBFCC1CC2E}"/>
+    <hyperlink ref="B134" r:id="rId64" xr:uid="{A700F524-346C-46CA-83A7-4552941B3B98}"/>
+    <hyperlink ref="B141" r:id="rId65" display="Island Perimeter(Leetcode 463)" xr:uid="{5DE2F2FA-2E17-4A52-ACD4-61B15A04A5B0}"/>
+    <hyperlink ref="B142" r:id="rId66" display="Coloring a boarder(Leetcode 1034)" xr:uid="{798A1599-71F4-46B0-AD28-D83F307BE681}"/>
     <hyperlink ref="B87" r:id="rId67" xr:uid="{DD9A560B-E5C7-4E60-8446-22394935D36C}"/>
-    <hyperlink ref="B199" r:id="rId68" xr:uid="{03B006FB-BD99-49E8-B0CF-A1411CDCD75D}"/>
-    <hyperlink ref="B160" r:id="rId69" xr:uid="{A69453EE-8300-4DB2-821E-1D1CEC03BB95}"/>
-    <hyperlink ref="B161" r:id="rId70" xr:uid="{5346D678-00B2-4954-B278-FAC87EFE38AA}"/>
+    <hyperlink ref="B204" r:id="rId68" xr:uid="{03B006FB-BD99-49E8-B0CF-A1411CDCD75D}"/>
+    <hyperlink ref="B165" r:id="rId69" xr:uid="{A69453EE-8300-4DB2-821E-1D1CEC03BB95}"/>
+    <hyperlink ref="B166" r:id="rId70" xr:uid="{5346D678-00B2-4954-B278-FAC87EFE38AA}"/>
     <hyperlink ref="B53" r:id="rId71" xr:uid="{6FFD9D79-5FE0-4BD1-A387-04EF18E588EB}"/>
     <hyperlink ref="B66" r:id="rId72" xr:uid="{24A04855-787B-4E35-AED9-A8DF426F14C3}"/>
     <hyperlink ref="B54" r:id="rId73" xr:uid="{0B44ABF3-C704-4118-A5A4-AB42831E4CAB}"/>
     <hyperlink ref="B67" r:id="rId74" xr:uid="{BDB1D287-B4F2-4333-8B69-345256536C30}"/>
-    <hyperlink ref="B162" r:id="rId75" xr:uid="{FE3C24C2-8F6F-423E-9318-8762A839D7AB}"/>
-    <hyperlink ref="B163" r:id="rId76" xr:uid="{82D6D445-B836-401F-9630-962E607CF4B4}"/>
+    <hyperlink ref="B167" r:id="rId75" xr:uid="{FE3C24C2-8F6F-423E-9318-8762A839D7AB}"/>
+    <hyperlink ref="B168" r:id="rId76" xr:uid="{82D6D445-B836-401F-9630-962E607CF4B4}"/>
     <hyperlink ref="B68" r:id="rId77" xr:uid="{251EF257-5299-4E6B-B4E4-308B88F56A4D}"/>
     <hyperlink ref="B55" r:id="rId78" xr:uid="{24CB3186-B8BE-4D3C-A4C5-1A0378491CCC}"/>
     <hyperlink ref="B118" r:id="rId79" xr:uid="{ED899755-C819-4A57-B27A-E0E1A40206BE}"/>
-    <hyperlink ref="B168" r:id="rId80" xr:uid="{4B414C58-F7E3-443C-8355-8EDC4821C8E2}"/>
-    <hyperlink ref="B169" r:id="rId81" xr:uid="{0CB65202-C1D3-4A06-9AC9-2142119EADC8}"/>
-    <hyperlink ref="B170" r:id="rId82" xr:uid="{7763E607-6CAD-452E-A076-302FC9BE812F}"/>
+    <hyperlink ref="B173" r:id="rId80" xr:uid="{4B414C58-F7E3-443C-8355-8EDC4821C8E2}"/>
+    <hyperlink ref="B174" r:id="rId81" xr:uid="{0CB65202-C1D3-4A06-9AC9-2142119EADC8}"/>
+    <hyperlink ref="B175" r:id="rId82" xr:uid="{7763E607-6CAD-452E-A076-302FC9BE812F}"/>
     <hyperlink ref="B31" r:id="rId83" xr:uid="{AE173E16-AC06-436F-8C00-F4EF327A82C5}"/>
     <hyperlink ref="B76" r:id="rId84" xr:uid="{87CBDE01-A2ED-44D2-A8AB-078779B86EFD}"/>
-    <hyperlink ref="B138" r:id="rId85" xr:uid="{69229D0E-3C31-4FE6-80D9-F3939879E6AE}"/>
+    <hyperlink ref="B143" r:id="rId85" xr:uid="{69229D0E-3C31-4FE6-80D9-F3939879E6AE}"/>
     <hyperlink ref="B94" r:id="rId86" xr:uid="{9925B627-2A9E-4561-9D20-D941B5F4FF85}"/>
     <hyperlink ref="B56" r:id="rId87" xr:uid="{64773702-C55B-4516-9757-86C269D7620D}"/>
     <hyperlink ref="B113" r:id="rId88" xr:uid="{24AE266C-70F3-45D2-BC7A-95D7292B8BAE}"/>
     <hyperlink ref="C5" r:id="rId89" xr:uid="{5967F330-98B5-492F-9348-85B5EC76C7C7}"/>
-    <hyperlink ref="B171" r:id="rId90" xr:uid="{DBC012B9-2FE1-4A1F-81A5-E12D0221311F}"/>
-    <hyperlink ref="B139" r:id="rId91" xr:uid="{A62F2FC4-AED0-400F-996E-7B8C6CBA1839}"/>
-    <hyperlink ref="B174" r:id="rId92" xr:uid="{43C44FE0-B674-4C68-AEB4-CF3538DC7436}"/>
-    <hyperlink ref="B175" r:id="rId93" xr:uid="{BF76033A-3A3B-488F-92AE-980E5BB33DAC}"/>
+    <hyperlink ref="B176" r:id="rId90" xr:uid="{DBC012B9-2FE1-4A1F-81A5-E12D0221311F}"/>
+    <hyperlink ref="B144" r:id="rId91" xr:uid="{A62F2FC4-AED0-400F-996E-7B8C6CBA1839}"/>
+    <hyperlink ref="B179" r:id="rId92" xr:uid="{43C44FE0-B674-4C68-AEB4-CF3538DC7436}"/>
+    <hyperlink ref="B180" r:id="rId93" xr:uid="{BF76033A-3A3B-488F-92AE-980E5BB33DAC}"/>
     <hyperlink ref="B123" r:id="rId94" display="Find if a path if exist in a graph " xr:uid="{DE39EA76-4DAF-4A4D-9FFA-47FB3C3C8930}"/>
-    <hyperlink ref="B172" r:id="rId95" xr:uid="{92DE0656-EBC3-4075-9BC9-5E9B33F7FB45}"/>
-    <hyperlink ref="B140" r:id="rId96" xr:uid="{3C307896-A24F-4467-8513-F1E2C671C2A8}"/>
-    <hyperlink ref="B141" r:id="rId97" xr:uid="{3101D513-FDFE-42AA-B550-B554E2041A9C}"/>
-    <hyperlink ref="B142" r:id="rId98" xr:uid="{FB51852A-8C10-4710-92C7-A2A6C7B1AC85}"/>
-    <hyperlink ref="B143" r:id="rId99" xr:uid="{E6DD8FE5-90D2-46B2-BE68-0189F3440BDD}"/>
+    <hyperlink ref="B177" r:id="rId95" xr:uid="{92DE0656-EBC3-4075-9BC9-5E9B33F7FB45}"/>
+    <hyperlink ref="B145" r:id="rId96" xr:uid="{3C307896-A24F-4467-8513-F1E2C671C2A8}"/>
+    <hyperlink ref="B146" r:id="rId97" xr:uid="{3101D513-FDFE-42AA-B550-B554E2041A9C}"/>
+    <hyperlink ref="B147" r:id="rId98" xr:uid="{FB51852A-8C10-4710-92C7-A2A6C7B1AC85}"/>
+    <hyperlink ref="B148" r:id="rId99" xr:uid="{E6DD8FE5-90D2-46B2-BE68-0189F3440BDD}"/>
     <hyperlink ref="B119" r:id="rId100" xr:uid="{2D08A8B1-DB4B-4C10-BDA9-D1615E28A41C}"/>
     <hyperlink ref="B57" r:id="rId101" xr:uid="{240EF687-4797-48A5-BDB8-322085DB9E05}"/>
-    <hyperlink ref="B144" r:id="rId102" xr:uid="{EB5C0E08-2956-4C6F-AA3E-F9051A79E49E}"/>
-    <hyperlink ref="B185" r:id="rId103" xr:uid="{FE7C4175-8664-4BC8-BB3D-A10DAFB881FB}"/>
+    <hyperlink ref="B149" r:id="rId102" xr:uid="{EB5C0E08-2956-4C6F-AA3E-F9051A79E49E}"/>
+    <hyperlink ref="B190" r:id="rId103" xr:uid="{FE7C4175-8664-4BC8-BB3D-A10DAFB881FB}"/>
     <hyperlink ref="B58" r:id="rId104" xr:uid="{A910DE23-BFF3-41F5-938E-C364E744CD5C}"/>
     <hyperlink ref="B59" r:id="rId105" display="The Sports Festival (Codeforces) (Range DP)" xr:uid="{F87B7743-6118-4AD4-95D1-151712A780B5}"/>
-    <hyperlink ref="B176" r:id="rId106" xr:uid="{60B3606C-6A93-40E3-A8B1-0907E1B2A430}"/>
-    <hyperlink ref="B177" r:id="rId107" xr:uid="{12124149-330B-4A67-9BED-5BA770C10CB8}"/>
-    <hyperlink ref="B190" r:id="rId108" xr:uid="{F2B738E2-52DE-42B0-A3D9-D08E0BCB9432}"/>
-    <hyperlink ref="B145" r:id="rId109" xr:uid="{88355B46-960B-4C80-92E6-74155AE1846F}"/>
-    <hyperlink ref="B191" r:id="rId110" xr:uid="{5CD1160D-341E-4791-BACA-3F9092182144}"/>
+    <hyperlink ref="B181" r:id="rId106" xr:uid="{60B3606C-6A93-40E3-A8B1-0907E1B2A430}"/>
+    <hyperlink ref="B182" r:id="rId107" xr:uid="{12124149-330B-4A67-9BED-5BA770C10CB8}"/>
+    <hyperlink ref="B195" r:id="rId108" xr:uid="{F2B738E2-52DE-42B0-A3D9-D08E0BCB9432}"/>
+    <hyperlink ref="B150" r:id="rId109" xr:uid="{88355B46-960B-4C80-92E6-74155AE1846F}"/>
+    <hyperlink ref="B196" r:id="rId110" xr:uid="{5CD1160D-341E-4791-BACA-3F9092182144}"/>
     <hyperlink ref="B60" r:id="rId111" xr:uid="{1D03A4E8-7951-4D73-BB77-6A13B5073ABD}"/>
-    <hyperlink ref="B192" r:id="rId112" xr:uid="{7D71B2AE-423B-4189-B6C2-0BC12E256D4C}"/>
-    <hyperlink ref="B193" r:id="rId113" xr:uid="{4DEE4EFD-F499-42AD-B94D-0D07986DD071}"/>
-    <hyperlink ref="B194" r:id="rId114" xr:uid="{EC17589B-2B9F-4F14-BE3C-872DB4035C24}"/>
-    <hyperlink ref="B195" r:id="rId115" xr:uid="{336DDC4E-26AD-451B-8AA4-0EC3B9206239}"/>
+    <hyperlink ref="B197" r:id="rId112" xr:uid="{7D71B2AE-423B-4189-B6C2-0BC12E256D4C}"/>
+    <hyperlink ref="B198" r:id="rId113" xr:uid="{4DEE4EFD-F499-42AD-B94D-0D07986DD071}"/>
+    <hyperlink ref="B199" r:id="rId114" xr:uid="{EC17589B-2B9F-4F14-BE3C-872DB4035C24}"/>
+    <hyperlink ref="B200" r:id="rId115" xr:uid="{336DDC4E-26AD-451B-8AA4-0EC3B9206239}"/>
+    <hyperlink ref="B124" r:id="rId116" xr:uid="{CE60145A-A790-401A-B0FE-FE9AFFF84C91}"/>
+    <hyperlink ref="B125" r:id="rId117" xr:uid="{E5AAB169-49FD-4558-BB7F-932D8F4002BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId116"/>
+  <pageSetup orientation="portrait" r:id="rId118"/>
 </worksheet>
 </file>
 

--- a/Competitive Programming.xlsx
+++ b/Competitive Programming.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWRAJ KANT SHARMA\Desktop\Practice_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADCD4F0-1D46-4EE2-8160-FA05A91C9B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27BB3F1-404D-4BBE-81C4-8601E37258AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="830" xr2:uid="{676E50BF-78A7-4A83-A081-539C5922F240}"/>
   </bookViews>
   <sheets>
     <sheet name="Dp and Graph" sheetId="1" r:id="rId1"/>
-    <sheet name="Game Theory" sheetId="6" r:id="rId2"/>
-    <sheet name="Bitmanipulation &amp; Num. Theory" sheetId="7" r:id="rId3"/>
-    <sheet name="Kartik arora cp sheet" sheetId="4" r:id="rId4"/>
-    <sheet name="contest " sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="157">
   <si>
     <t>Tiling Problem -1 (Introductory Problem) (1d-dp)</t>
   </si>
@@ -492,25 +488,6 @@
     <t xml:space="preserve">Print the binary strings as well </t>
   </si>
   <si>
-    <t xml:space="preserve">                                                      </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                            </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  CodeForces-Specialist</t>
-    </r>
-  </si>
-  <si>
     <t>Most Stones Removed from same row or column</t>
   </si>
   <si>
@@ -530,250 +507,12 @@
 Iterative DFS</t>
   </si>
   <si>
-    <t>Solved</t>
-  </si>
-  <si>
-    <t>Upsolved</t>
-  </si>
-  <si>
-    <t>Not_Solved</t>
-  </si>
-  <si>
-    <t>1.  Codeforces Round #745 (Div. 2)</t>
-  </si>
-  <si>
-    <t>Not yet attempted</t>
-  </si>
-  <si>
-    <t>2. Codeforces Round #746 (Div. 2)</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>3. Codeforces Round #747 (Div. 2)</t>
-  </si>
-  <si>
-    <t>4. Educational Codeforces Round 115 (Rated for Div. 2)</t>
-  </si>
-  <si>
-    <t>A,B,C</t>
-  </si>
-  <si>
-    <t>5. Codeforces Round #748 (Div. 3)</t>
-  </si>
-  <si>
-    <t>A,B,C,D1</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>6. Codeforces Round #749 (Div. 1 + Div. 2, based on Technocup 2022 Elimination Round 1)</t>
-  </si>
-  <si>
-    <t>B,C</t>
-  </si>
-  <si>
-    <t>7. Codeforces Round #750 (Div. 2)</t>
-  </si>
-  <si>
-    <t>A,B</t>
-  </si>
-  <si>
-    <t>C,D</t>
-  </si>
-  <si>
-    <t>8. Codeforces Round #751 (Div. 2)</t>
-  </si>
-  <si>
-    <t>9. Educational Codeforces Round 116 (Rated for Div. 2)</t>
-  </si>
-  <si>
-    <t>Not able to solve evne a single 
-question during the contest</t>
-  </si>
-  <si>
-    <t>10. Speed_Run 3(Virtual Contest)</t>
-  </si>
-  <si>
-    <t>11. Speed Run 4(Virtual Contest)</t>
-  </si>
-  <si>
-    <t>12 . Speed Run 5(Virtual Contest)</t>
-  </si>
-  <si>
-    <t>13. Speed Run 6(Virtual Contest)</t>
-  </si>
-  <si>
-    <t>14. SpeedRun 7 (Virtual Contest 86)</t>
-  </si>
-  <si>
-    <t>15. AtCoder Beginner Contest 224</t>
-  </si>
-  <si>
-    <t>16. AtCoder Beginner Contest 223</t>
-  </si>
-  <si>
-    <t>17. AtCoder Beginner Contest 222</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>18. AtCoder Beginner Contest 221</t>
-  </si>
-  <si>
-    <t>19. CodeChef Starters 16 Division 3 (Rated)</t>
-  </si>
-  <si>
-    <t>A,B,C,D</t>
-  </si>
-  <si>
-    <t>20. October Cook-Off 2021 Division 2</t>
-  </si>
-  <si>
-    <t>21 October Lunchtime 2021 Division 2</t>
-  </si>
-  <si>
-    <t>22. CodeChef Starters 15 Division 3 (Rated)</t>
-  </si>
-  <si>
-    <t>D,E</t>
-  </si>
-  <si>
-    <t>23. AtCoder Beginner Contest 225</t>
-  </si>
-  <si>
-    <t>24. Codeforces Round #752 (Div. 2)</t>
-  </si>
-  <si>
-    <t>1. Codeforces Round #741 (Div. 2)</t>
-  </si>
-  <si>
-    <t>C,D1</t>
-  </si>
-  <si>
-    <t>2. Deltix Round, Summer 2021 (open for everyone, rated, Div. 1 + Div. 2)</t>
-  </si>
-  <si>
-    <t>3. Codeforces Round #742 (Div. 2)</t>
-  </si>
-  <si>
-    <t>4. Educational Codeforces Round 113 (Rated for Div. 2)</t>
-  </si>
-  <si>
-    <t>5. Codeforces Global Round 16</t>
-  </si>
-  <si>
-    <t>6. Codeforces Round #743 (Div. 2)</t>
-  </si>
-  <si>
-    <t>7.Educational Codeforces Round 114 (Rated for Div. 2)</t>
-  </si>
-  <si>
-    <t>Not given the contest</t>
-  </si>
-  <si>
-    <t>8. Codeforces Round #744 (Div. 3)</t>
-  </si>
-  <si>
-    <t>A,B,E1</t>
-  </si>
-  <si>
-    <t>9. AtCoder Beginner Contest 220</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>10. Virtual Contest 52</t>
-  </si>
-  <si>
-    <t>11. Virtual Contest 71</t>
-  </si>
-  <si>
-    <t>12. Virtual Contest 77</t>
-  </si>
-  <si>
-    <t>13. Virtual Contest 78</t>
-  </si>
-  <si>
-    <t>14. Virtual Contest 79</t>
-  </si>
-  <si>
-    <t>A,C</t>
-  </si>
-  <si>
     <t>Ice Skating (codeforces)</t>
   </si>
   <si>
     <t>Solve using both dfs and dsu</t>
   </si>
   <si>
-    <t>1. Challenging Cliffs</t>
-  </si>
-  <si>
-    <t>2.Pleaseant Pairs</t>
-  </si>
-  <si>
-    <t>3. Same Differences</t>
-  </si>
-  <si>
-    <t>4. Nastia and a good array</t>
-  </si>
-  <si>
-    <t>5. I hate 1111</t>
-  </si>
-  <si>
-    <t>6.Corrupted Array</t>
-  </si>
-  <si>
-    <t>7. Inflation</t>
-  </si>
-  <si>
-    <t>8. Accidental Victory</t>
-  </si>
-  <si>
-    <t>9.District Connection</t>
-  </si>
-  <si>
-    <t>10.Filmanio 2</t>
-  </si>
-  <si>
-    <t>11. Replace and keep sorted</t>
-  </si>
-  <si>
-    <t>12.Strange Birthday Party</t>
-  </si>
-  <si>
-    <t>13.Box Fitting</t>
-  </si>
-  <si>
-    <t>14. Add One</t>
-  </si>
-  <si>
-    <t>15.Find the array</t>
-  </si>
-  <si>
-    <t>16. Buying shovels</t>
-  </si>
-  <si>
-    <t>17.Min. Cost string</t>
-  </si>
-  <si>
-    <t>18. Zero Remainder Array</t>
-  </si>
-  <si>
-    <t>19. Binary String to subsequence</t>
-  </si>
-  <si>
-    <t>20. a-Good String</t>
-  </si>
-  <si>
-    <t>21. Gcd Length</t>
-  </si>
-  <si>
     <t>Find if Path Exists in Graph(Leetcode 1971)</t>
   </si>
   <si>
@@ -784,12 +523,6 @@
   </si>
   <si>
     <t>Count Subisland (Leetcode 1905)</t>
-  </si>
-  <si>
-    <t>1.Codeforces Round #753 (Div. 3)</t>
-  </si>
-  <si>
-    <t>2.Code Senso Division 2 (Rated)</t>
   </si>
   <si>
     <t>Coloring a tree(codeforces)</t>
@@ -902,18 +635,6 @@
     <t>Range DP</t>
   </si>
   <si>
-    <t>4.November Cookoff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Codechef Starter 18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Codechef Starter 17 Division 2 </t>
-  </si>
-  <si>
-    <t>Octobor- 2021</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">                                                                                                                  </t>
     </r>
@@ -940,22 +661,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">                                                                                  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Past Contests</t>
-    </r>
-  </si>
-  <si>
     <t>Remove Max Number of Edges to Keep Graph Fully Traversable (Leetcod 1579)</t>
   </si>
   <si>
@@ -984,22 +689,6 @@
     <t>Crazy Robot (Codeforces)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>December - 2021</t>
-    </r>
-  </si>
-  <si>
     <t>Find Best Path (CodeChef)</t>
   </si>
   <si>
@@ -1028,13 +717,35 @@
   </si>
   <si>
     <t>Rotting Orange (Leetcode 994)</t>
+  </si>
+  <si>
+    <t>Shortest Bridge (Leetcode 934)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>DFS and Multisource BFS</t>
+  </si>
+  <si>
+    <t>Map of Highest Peak (Leetcode 1765)</t>
+  </si>
+  <si>
+    <t>Minimum Height Tree (Leetcode 310)</t>
+  </si>
+  <si>
+    <t>Multisource BFS and Some Important 
+Observation regarding Tree</t>
+  </si>
+  <si>
+    <t>Bakery and Partitioningn(Codeforces)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1145,20 +856,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1226,7 +923,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1261,21 +958,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1593,18 +1277,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139970D0-FC94-4441-AAB1-2B31146F0F0C}">
-  <dimension ref="A2:D233"/>
+  <dimension ref="A2:D237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="96" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="115.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="80.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.35">
@@ -1661,7 +1345,7 @@
     </row>
     <row r="11" spans="2:4" ht="21" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -1769,7 +1453,7 @@
     </row>
     <row r="40" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B40" s="3" t="s">
-        <v>204</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
@@ -1858,28 +1542,28 @@
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="6" t="s">
-        <v>203</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="6" t="s">
-        <v>214</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="6" t="s">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>216</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C60" s="38" t="s">
-        <v>231</v>
+        <v>141</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
@@ -1947,7 +1631,9 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="14"/>
+      <c r="B88" s="8" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B93" s="9" t="s">
@@ -1961,7 +1647,7 @@
     </row>
     <row r="103" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B103" s="3" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -1998,7 +1684,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="17" t="s">
         <v>102</v>
@@ -2007,407 +1693,440 @@
         <v>103</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B117" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B118" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B120" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B121" s="14"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B122" s="14"/>
     </row>
-    <row r="123" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B123" s="17" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B124" s="14" t="s">
-        <v>237</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B124" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B125" s="14" t="s">
-        <v>238</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B125" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B126" s="14"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B127" s="14"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B128" s="14"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B126" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B127" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B128" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B129" s="14"/>
     </row>
-    <row r="130" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B130" s="14"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B131" s="14"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B132" s="14"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B133" s="14"/>
+    </row>
+    <row r="134" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B131" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B132" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B133" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B134" s="8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B136" s="12" t="s">
-        <v>13</v>
+      <c r="B136" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="50.4" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B139" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>59</v>
+      <c r="B139" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B140" s="8" t="s">
-        <v>208</v>
+      <c r="B140" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B142" s="12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B143" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="33.6" x14ac:dyDescent="0.4">
+      <c r="B142" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B144" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B147" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B144" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B145" s="14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B146" s="14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B147" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B148" s="14" t="s">
-        <v>200</v>
+    <row r="148" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B148" s="20" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B149" s="12" t="s">
-        <v>211</v>
+      <c r="B149" s="14" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="37"/>
-      <c r="B150" s="12" t="s">
-        <v>227</v>
+      <c r="B150" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B151" s="32"/>
+      <c r="B151" s="14" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B152" s="14"/>
-    </row>
-    <row r="153" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+      <c r="B152" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="28"/>
+      <c r="B154" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="26"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B156" s="14"/>
+    </row>
+    <row r="157" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B154" s="15" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B158" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B155" s="14"/>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B156" s="8" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="14"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B157" s="8" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B161" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B158" s="8" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B162" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B159" s="12" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B163" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B160" s="12" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B164" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="3" t="s">
+    <row r="168" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B165" s="8" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B169" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B166" s="12" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B170" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B167" s="11" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B171" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B168" s="11" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B172" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B172" s="3" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B176" s="3" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B173" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C173" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B174" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B175" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B176" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C176" s="23" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>172</v>
+        <v>89</v>
+      </c>
+      <c r="C177" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B178" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="179" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B179" s="24" t="s">
-        <v>110</v>
+      <c r="B179" s="19" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="180" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B180" s="25" t="s">
-        <v>111</v>
+      <c r="B180" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C180" s="23" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B182" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B183" s="14"/>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B184" s="14"/>
+        <v>111</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B183" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B184" s="25" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B185" s="14"/>
+      <c r="B185" s="8" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B186" s="14"/>
+      <c r="B186" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B187" s="14"/>
     </row>
-    <row r="189" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B189" s="3" t="s">
-        <v>212</v>
-      </c>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B188" s="14"/>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B189" s="14"/>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B190" s="34" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B194" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B195" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B196" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B197" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B198" s="8" t="s">
-        <v>233</v>
+      <c r="B190" s="14"/>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B191" s="14"/>
+    </row>
+    <row r="193" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B193" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B194" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B198" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B199" s="8" t="s">
-        <v>234</v>
+        <v>138</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B200" s="11" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B201" s="14"/>
-    </row>
-    <row r="203" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+      <c r="B201" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B202" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B203" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B204" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B205" s="14"/>
+    </row>
+    <row r="207" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+    <row r="208" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>66</v>
       </c>
-      <c r="B204" s="10" t="s">
+      <c r="B208" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B233" s="3" t="s">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B237" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2454,772 +2173,88 @@
     <hyperlink ref="B114" r:id="rId39" xr:uid="{7133A624-41D7-44AF-9E6F-9E274DB9BB20}"/>
     <hyperlink ref="B115" r:id="rId40" xr:uid="{828115FF-76E7-4287-96EE-64E4C8890506}"/>
     <hyperlink ref="B116" r:id="rId41" xr:uid="{F64D5C1D-C62C-41AE-B585-653E7D0E5398}"/>
-    <hyperlink ref="B131" r:id="rId42" xr:uid="{BDFE4FA6-2B07-46FB-96D6-C71D62BF5402}"/>
-    <hyperlink ref="B133" r:id="rId43" display="Largest Island (DFS)" xr:uid="{0D87E924-D559-4178-88E9-C24F43296D3B}"/>
-    <hyperlink ref="B135" r:id="rId44" xr:uid="{DF885FC2-02F7-4BA5-8B25-9A9438DE93AD}"/>
-    <hyperlink ref="B136" r:id="rId45" xr:uid="{3F16CC60-2B7F-4D6D-8F70-FCA77C20B6FC}"/>
-    <hyperlink ref="B154" r:id="rId46" xr:uid="{C0D5EBA8-833D-4376-A7A0-C4901F3A93BC}"/>
-    <hyperlink ref="B156" r:id="rId47" display="Course Schedule " xr:uid="{433062C0-0C45-488D-8B65-3584B6597A06}"/>
-    <hyperlink ref="B157" r:id="rId48" xr:uid="{2BCC67C3-68FB-4BDA-A903-4D75D9E5187D}"/>
-    <hyperlink ref="B159" r:id="rId49" xr:uid="{7F788B88-42B7-4553-A053-DEAEE94E1B52}"/>
-    <hyperlink ref="B158" r:id="rId50" xr:uid="{8D801D27-2D97-42AD-8627-58F5E7CB992D}"/>
-    <hyperlink ref="B160" r:id="rId51" xr:uid="{190BB666-52B8-4FD8-8751-E9055BF9B1ED}"/>
+    <hyperlink ref="B135" r:id="rId42" xr:uid="{BDFE4FA6-2B07-46FB-96D6-C71D62BF5402}"/>
+    <hyperlink ref="B137" r:id="rId43" display="Largest Island (DFS)" xr:uid="{0D87E924-D559-4178-88E9-C24F43296D3B}"/>
+    <hyperlink ref="B139" r:id="rId44" xr:uid="{DF885FC2-02F7-4BA5-8B25-9A9438DE93AD}"/>
+    <hyperlink ref="B140" r:id="rId45" xr:uid="{3F16CC60-2B7F-4D6D-8F70-FCA77C20B6FC}"/>
+    <hyperlink ref="B158" r:id="rId46" xr:uid="{C0D5EBA8-833D-4376-A7A0-C4901F3A93BC}"/>
+    <hyperlink ref="B160" r:id="rId47" display="Course Schedule " xr:uid="{433062C0-0C45-488D-8B65-3584B6597A06}"/>
+    <hyperlink ref="B161" r:id="rId48" xr:uid="{2BCC67C3-68FB-4BDA-A903-4D75D9E5187D}"/>
+    <hyperlink ref="B163" r:id="rId49" xr:uid="{7F788B88-42B7-4553-A053-DEAEE94E1B52}"/>
+    <hyperlink ref="B162" r:id="rId50" xr:uid="{8D801D27-2D97-42AD-8627-58F5E7CB992D}"/>
+    <hyperlink ref="B164" r:id="rId51" xr:uid="{190BB666-52B8-4FD8-8751-E9055BF9B1ED}"/>
     <hyperlink ref="B50" r:id="rId52" xr:uid="{0E164469-6B71-4973-ABA0-2634F0D859C9}"/>
     <hyperlink ref="B51" r:id="rId53" xr:uid="{4DE6943F-14A3-4EBE-B828-7138B0C29675}"/>
     <hyperlink ref="B52" r:id="rId54" xr:uid="{9D324F52-69A1-47C7-94FD-E32371E256E0}"/>
     <hyperlink ref="B65" r:id="rId55" xr:uid="{3FC10AA8-89B4-4A8E-8A89-90035519C7AD}"/>
-    <hyperlink ref="B137" r:id="rId56" xr:uid="{2C2E9E5C-5BF3-428C-BFF4-1A4C3266B83D}"/>
+    <hyperlink ref="B141" r:id="rId56" xr:uid="{2C2E9E5C-5BF3-428C-BFF4-1A4C3266B83D}"/>
     <hyperlink ref="B30" r:id="rId57" xr:uid="{7D4E426D-2FF9-4276-82F3-5E040D81B9CB}"/>
     <hyperlink ref="C43" r:id="rId58" xr:uid="{5355EEC8-3E21-43EE-ADD2-DF8D474C67E3}"/>
     <hyperlink ref="C7" r:id="rId59" xr:uid="{CA575981-E951-44B7-81CF-33E7103CDB71}"/>
-    <hyperlink ref="B138" r:id="rId60" xr:uid="{7F2F561A-66F1-432A-A0DF-F9D9A1A38F28}"/>
-    <hyperlink ref="B139" r:id="rId61" display="Word Search-&gt;2(Leetcode 212)" xr:uid="{0A139F23-015D-4B6A-BC5E-E2342BBCC6B4}"/>
-    <hyperlink ref="B140" r:id="rId62" display="No of Closed Island (Leetcode 1254)" xr:uid="{6B893F62-2E63-4F37-AFB3-26066A55421C}"/>
-    <hyperlink ref="B132" r:id="rId63" display="No of Islands(Leetcode 200)" xr:uid="{FC739872-F8BB-4DEA-85A5-ABEBFCC1CC2E}"/>
-    <hyperlink ref="B134" r:id="rId64" xr:uid="{A700F524-346C-46CA-83A7-4552941B3B98}"/>
-    <hyperlink ref="B141" r:id="rId65" display="Island Perimeter(Leetcode 463)" xr:uid="{5DE2F2FA-2E17-4A52-ACD4-61B15A04A5B0}"/>
-    <hyperlink ref="B142" r:id="rId66" display="Coloring a boarder(Leetcode 1034)" xr:uid="{798A1599-71F4-46B0-AD28-D83F307BE681}"/>
+    <hyperlink ref="B142" r:id="rId60" xr:uid="{7F2F561A-66F1-432A-A0DF-F9D9A1A38F28}"/>
+    <hyperlink ref="B143" r:id="rId61" display="Word Search-&gt;2(Leetcode 212)" xr:uid="{0A139F23-015D-4B6A-BC5E-E2342BBCC6B4}"/>
+    <hyperlink ref="B144" r:id="rId62" display="No of Closed Island (Leetcode 1254)" xr:uid="{6B893F62-2E63-4F37-AFB3-26066A55421C}"/>
+    <hyperlink ref="B136" r:id="rId63" display="No of Islands(Leetcode 200)" xr:uid="{FC739872-F8BB-4DEA-85A5-ABEBFCC1CC2E}"/>
+    <hyperlink ref="B138" r:id="rId64" xr:uid="{A700F524-346C-46CA-83A7-4552941B3B98}"/>
+    <hyperlink ref="B145" r:id="rId65" display="Island Perimeter(Leetcode 463)" xr:uid="{5DE2F2FA-2E17-4A52-ACD4-61B15A04A5B0}"/>
+    <hyperlink ref="B146" r:id="rId66" display="Coloring a boarder(Leetcode 1034)" xr:uid="{798A1599-71F4-46B0-AD28-D83F307BE681}"/>
     <hyperlink ref="B87" r:id="rId67" xr:uid="{DD9A560B-E5C7-4E60-8446-22394935D36C}"/>
-    <hyperlink ref="B204" r:id="rId68" xr:uid="{03B006FB-BD99-49E8-B0CF-A1411CDCD75D}"/>
-    <hyperlink ref="B165" r:id="rId69" xr:uid="{A69453EE-8300-4DB2-821E-1D1CEC03BB95}"/>
-    <hyperlink ref="B166" r:id="rId70" xr:uid="{5346D678-00B2-4954-B278-FAC87EFE38AA}"/>
+    <hyperlink ref="B208" r:id="rId68" xr:uid="{03B006FB-BD99-49E8-B0CF-A1411CDCD75D}"/>
+    <hyperlink ref="B169" r:id="rId69" xr:uid="{A69453EE-8300-4DB2-821E-1D1CEC03BB95}"/>
+    <hyperlink ref="B170" r:id="rId70" xr:uid="{5346D678-00B2-4954-B278-FAC87EFE38AA}"/>
     <hyperlink ref="B53" r:id="rId71" xr:uid="{6FFD9D79-5FE0-4BD1-A387-04EF18E588EB}"/>
     <hyperlink ref="B66" r:id="rId72" xr:uid="{24A04855-787B-4E35-AED9-A8DF426F14C3}"/>
     <hyperlink ref="B54" r:id="rId73" xr:uid="{0B44ABF3-C704-4118-A5A4-AB42831E4CAB}"/>
     <hyperlink ref="B67" r:id="rId74" xr:uid="{BDB1D287-B4F2-4333-8B69-345256536C30}"/>
-    <hyperlink ref="B167" r:id="rId75" xr:uid="{FE3C24C2-8F6F-423E-9318-8762A839D7AB}"/>
-    <hyperlink ref="B168" r:id="rId76" xr:uid="{82D6D445-B836-401F-9630-962E607CF4B4}"/>
+    <hyperlink ref="B171" r:id="rId75" xr:uid="{FE3C24C2-8F6F-423E-9318-8762A839D7AB}"/>
+    <hyperlink ref="B172" r:id="rId76" xr:uid="{82D6D445-B836-401F-9630-962E607CF4B4}"/>
     <hyperlink ref="B68" r:id="rId77" xr:uid="{251EF257-5299-4E6B-B4E4-308B88F56A4D}"/>
     <hyperlink ref="B55" r:id="rId78" xr:uid="{24CB3186-B8BE-4D3C-A4C5-1A0378491CCC}"/>
     <hyperlink ref="B118" r:id="rId79" xr:uid="{ED899755-C819-4A57-B27A-E0E1A40206BE}"/>
-    <hyperlink ref="B173" r:id="rId80" xr:uid="{4B414C58-F7E3-443C-8355-8EDC4821C8E2}"/>
-    <hyperlink ref="B174" r:id="rId81" xr:uid="{0CB65202-C1D3-4A06-9AC9-2142119EADC8}"/>
-    <hyperlink ref="B175" r:id="rId82" xr:uid="{7763E607-6CAD-452E-A076-302FC9BE812F}"/>
+    <hyperlink ref="B177" r:id="rId80" xr:uid="{4B414C58-F7E3-443C-8355-8EDC4821C8E2}"/>
+    <hyperlink ref="B178" r:id="rId81" xr:uid="{0CB65202-C1D3-4A06-9AC9-2142119EADC8}"/>
+    <hyperlink ref="B179" r:id="rId82" xr:uid="{7763E607-6CAD-452E-A076-302FC9BE812F}"/>
     <hyperlink ref="B31" r:id="rId83" xr:uid="{AE173E16-AC06-436F-8C00-F4EF327A82C5}"/>
     <hyperlink ref="B76" r:id="rId84" xr:uid="{87CBDE01-A2ED-44D2-A8AB-078779B86EFD}"/>
-    <hyperlink ref="B143" r:id="rId85" xr:uid="{69229D0E-3C31-4FE6-80D9-F3939879E6AE}"/>
+    <hyperlink ref="B147" r:id="rId85" xr:uid="{69229D0E-3C31-4FE6-80D9-F3939879E6AE}"/>
     <hyperlink ref="B94" r:id="rId86" xr:uid="{9925B627-2A9E-4561-9D20-D941B5F4FF85}"/>
     <hyperlink ref="B56" r:id="rId87" xr:uid="{64773702-C55B-4516-9757-86C269D7620D}"/>
     <hyperlink ref="B113" r:id="rId88" xr:uid="{24AE266C-70F3-45D2-BC7A-95D7292B8BAE}"/>
     <hyperlink ref="C5" r:id="rId89" xr:uid="{5967F330-98B5-492F-9348-85B5EC76C7C7}"/>
-    <hyperlink ref="B176" r:id="rId90" xr:uid="{DBC012B9-2FE1-4A1F-81A5-E12D0221311F}"/>
-    <hyperlink ref="B144" r:id="rId91" xr:uid="{A62F2FC4-AED0-400F-996E-7B8C6CBA1839}"/>
-    <hyperlink ref="B179" r:id="rId92" xr:uid="{43C44FE0-B674-4C68-AEB4-CF3538DC7436}"/>
-    <hyperlink ref="B180" r:id="rId93" xr:uid="{BF76033A-3A3B-488F-92AE-980E5BB33DAC}"/>
+    <hyperlink ref="B180" r:id="rId90" xr:uid="{DBC012B9-2FE1-4A1F-81A5-E12D0221311F}"/>
+    <hyperlink ref="B148" r:id="rId91" xr:uid="{A62F2FC4-AED0-400F-996E-7B8C6CBA1839}"/>
+    <hyperlink ref="B183" r:id="rId92" xr:uid="{43C44FE0-B674-4C68-AEB4-CF3538DC7436}"/>
+    <hyperlink ref="B184" r:id="rId93" xr:uid="{BF76033A-3A3B-488F-92AE-980E5BB33DAC}"/>
     <hyperlink ref="B123" r:id="rId94" display="Find if a path if exist in a graph " xr:uid="{DE39EA76-4DAF-4A4D-9FFA-47FB3C3C8930}"/>
-    <hyperlink ref="B177" r:id="rId95" xr:uid="{92DE0656-EBC3-4075-9BC9-5E9B33F7FB45}"/>
-    <hyperlink ref="B145" r:id="rId96" xr:uid="{3C307896-A24F-4467-8513-F1E2C671C2A8}"/>
-    <hyperlink ref="B146" r:id="rId97" xr:uid="{3101D513-FDFE-42AA-B550-B554E2041A9C}"/>
-    <hyperlink ref="B147" r:id="rId98" xr:uid="{FB51852A-8C10-4710-92C7-A2A6C7B1AC85}"/>
-    <hyperlink ref="B148" r:id="rId99" xr:uid="{E6DD8FE5-90D2-46B2-BE68-0189F3440BDD}"/>
+    <hyperlink ref="B181" r:id="rId95" xr:uid="{92DE0656-EBC3-4075-9BC9-5E9B33F7FB45}"/>
+    <hyperlink ref="B149" r:id="rId96" xr:uid="{3C307896-A24F-4467-8513-F1E2C671C2A8}"/>
+    <hyperlink ref="B150" r:id="rId97" xr:uid="{3101D513-FDFE-42AA-B550-B554E2041A9C}"/>
+    <hyperlink ref="B151" r:id="rId98" xr:uid="{FB51852A-8C10-4710-92C7-A2A6C7B1AC85}"/>
+    <hyperlink ref="B152" r:id="rId99" xr:uid="{E6DD8FE5-90D2-46B2-BE68-0189F3440BDD}"/>
     <hyperlink ref="B119" r:id="rId100" xr:uid="{2D08A8B1-DB4B-4C10-BDA9-D1615E28A41C}"/>
     <hyperlink ref="B57" r:id="rId101" xr:uid="{240EF687-4797-48A5-BDB8-322085DB9E05}"/>
-    <hyperlink ref="B149" r:id="rId102" xr:uid="{EB5C0E08-2956-4C6F-AA3E-F9051A79E49E}"/>
-    <hyperlink ref="B190" r:id="rId103" xr:uid="{FE7C4175-8664-4BC8-BB3D-A10DAFB881FB}"/>
+    <hyperlink ref="B153" r:id="rId102" xr:uid="{EB5C0E08-2956-4C6F-AA3E-F9051A79E49E}"/>
+    <hyperlink ref="B194" r:id="rId103" xr:uid="{FE7C4175-8664-4BC8-BB3D-A10DAFB881FB}"/>
     <hyperlink ref="B58" r:id="rId104" xr:uid="{A910DE23-BFF3-41F5-938E-C364E744CD5C}"/>
     <hyperlink ref="B59" r:id="rId105" display="The Sports Festival (Codeforces) (Range DP)" xr:uid="{F87B7743-6118-4AD4-95D1-151712A780B5}"/>
-    <hyperlink ref="B181" r:id="rId106" xr:uid="{60B3606C-6A93-40E3-A8B1-0907E1B2A430}"/>
-    <hyperlink ref="B182" r:id="rId107" xr:uid="{12124149-330B-4A67-9BED-5BA770C10CB8}"/>
-    <hyperlink ref="B195" r:id="rId108" xr:uid="{F2B738E2-52DE-42B0-A3D9-D08E0BCB9432}"/>
-    <hyperlink ref="B150" r:id="rId109" xr:uid="{88355B46-960B-4C80-92E6-74155AE1846F}"/>
-    <hyperlink ref="B196" r:id="rId110" xr:uid="{5CD1160D-341E-4791-BACA-3F9092182144}"/>
+    <hyperlink ref="B185" r:id="rId106" xr:uid="{60B3606C-6A93-40E3-A8B1-0907E1B2A430}"/>
+    <hyperlink ref="B186" r:id="rId107" xr:uid="{12124149-330B-4A67-9BED-5BA770C10CB8}"/>
+    <hyperlink ref="B199" r:id="rId108" xr:uid="{F2B738E2-52DE-42B0-A3D9-D08E0BCB9432}"/>
+    <hyperlink ref="B154" r:id="rId109" xr:uid="{88355B46-960B-4C80-92E6-74155AE1846F}"/>
+    <hyperlink ref="B200" r:id="rId110" xr:uid="{5CD1160D-341E-4791-BACA-3F9092182144}"/>
     <hyperlink ref="B60" r:id="rId111" xr:uid="{1D03A4E8-7951-4D73-BB77-6A13B5073ABD}"/>
-    <hyperlink ref="B197" r:id="rId112" xr:uid="{7D71B2AE-423B-4189-B6C2-0BC12E256D4C}"/>
-    <hyperlink ref="B198" r:id="rId113" xr:uid="{4DEE4EFD-F499-42AD-B94D-0D07986DD071}"/>
-    <hyperlink ref="B199" r:id="rId114" xr:uid="{EC17589B-2B9F-4F14-BE3C-872DB4035C24}"/>
-    <hyperlink ref="B200" r:id="rId115" xr:uid="{336DDC4E-26AD-451B-8AA4-0EC3B9206239}"/>
+    <hyperlink ref="B201" r:id="rId112" xr:uid="{7D71B2AE-423B-4189-B6C2-0BC12E256D4C}"/>
+    <hyperlink ref="B202" r:id="rId113" xr:uid="{4DEE4EFD-F499-42AD-B94D-0D07986DD071}"/>
+    <hyperlink ref="B203" r:id="rId114" xr:uid="{EC17589B-2B9F-4F14-BE3C-872DB4035C24}"/>
+    <hyperlink ref="B204" r:id="rId115" xr:uid="{336DDC4E-26AD-451B-8AA4-0EC3B9206239}"/>
     <hyperlink ref="B124" r:id="rId116" xr:uid="{CE60145A-A790-401A-B0FE-FE9AFFF84C91}"/>
     <hyperlink ref="B125" r:id="rId117" xr:uid="{E5AAB169-49FD-4558-BB7F-932D8F4002BF}"/>
+    <hyperlink ref="B126" r:id="rId118" xr:uid="{ACE3D96D-E7A6-46E4-9EF5-2B5CA1172620}"/>
+    <hyperlink ref="B127" r:id="rId119" xr:uid="{FAD9D7C9-6E5E-4F59-8FEA-4D04CA5EFF06}"/>
+    <hyperlink ref="B128" r:id="rId120" xr:uid="{BC520ED7-1786-453E-87C0-0F773A855F80}"/>
+    <hyperlink ref="B88" r:id="rId121" xr:uid="{3B014199-AD65-4EFB-B13D-3247ABCFFB10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId118"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22273092-445F-4C7D-8ADB-53EE3A52A5C1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="81.77734375" customWidth="1"/>
-    <col min="3" max="3" width="37.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76399EB1-B313-4B21-89DA-6AC057E03B7C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65141992-1E9C-4E4B-B54F-022A0BC8019E}">
-  <dimension ref="B2:B39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="71" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="27" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="27" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="27" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="27" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="27" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="27" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{AAD71CDC-532B-4D1F-A7C7-52B43FE3DD7A}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{A890970C-B936-4E4C-8DDD-A576DC98892C}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{AEF4D4EE-1C1B-4BAF-AD68-AE1ACEE4DBAF}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{38E49716-9212-44A7-B42F-E87A7B43F233}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{E4D0C383-2445-4F49-B8F1-058A61392241}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{77848610-67FE-434C-85A6-98C456EEE1F9}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{16A940C8-FCAE-4328-B525-D33B4BAF4597}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{95B7BE55-848D-49AD-83CD-88E9DB1F177C}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{C44CB594-B18E-4639-94ED-E0FD6A36331F}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{EF9C4821-3593-471C-9527-F2368CE2B1D3}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{1ECB6D79-E7AA-4D64-8B01-31626206BB6F}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{A03C61B5-6D5A-453F-8D60-7D06041983B6}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{687E1E51-3E47-4582-B660-974BFB2FC824}"/>
-    <hyperlink ref="B16" r:id="rId14" xr:uid="{5087CD67-62CB-4C69-B63B-16AF4ECD1FF3}"/>
-    <hyperlink ref="B17" r:id="rId15" xr:uid="{120B94A2-FB57-4DD0-B79F-C3831ADDA45E}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{2762CDCE-6C5D-4806-9A00-4C2E92E9F275}"/>
-    <hyperlink ref="B19" r:id="rId17" xr:uid="{E1FCE7FF-DA96-4DFE-B315-D3B61C87C0DB}"/>
-    <hyperlink ref="B20" r:id="rId18" xr:uid="{FF67BB6E-A31F-4965-A42B-71634500CC74}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{3ED6E200-3B79-4205-A3E9-9104FFDB9EB8}"/>
-    <hyperlink ref="B22" r:id="rId20" xr:uid="{0305DAB6-DB56-4D75-BDFC-AB3005F429D7}"/>
-    <hyperlink ref="B23" r:id="rId21" xr:uid="{691F6F76-6965-45DC-94BB-5B30B40FA3FE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E089B8C-0632-4F75-963A-622517A450AC}">
-  <dimension ref="B1:E83"/>
-  <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="88.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-    </row>
-    <row r="19" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B20" s="33">
-        <v>44440</v>
-      </c>
-      <c r="C20" s="29"/>
-    </row>
-    <row r="21" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="29"/>
-    </row>
-    <row r="22" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="E27" s="31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C36" s="29"/>
-    </row>
-    <row r="37" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C37" s="29"/>
-    </row>
-    <row r="38" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B38" s="26" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E53" s="31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="E55" s="31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="E60" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D61" s="30" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B65" s="33">
-        <v>44501</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="C67" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="B83" t="s">
-        <v>228</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B40" r:id="rId1" xr:uid="{53FC2261-4DC6-418A-B4A2-EA887E0BEF29}"/>
-    <hyperlink ref="B41" r:id="rId2" xr:uid="{CD8A60CB-57A7-4392-A09B-D2DFE88ACD6B}"/>
-    <hyperlink ref="B42" r:id="rId3" xr:uid="{87257981-BCE4-4092-AB9C-EBC956B7957B}"/>
-    <hyperlink ref="B43" r:id="rId4" xr:uid="{A8A710CF-C090-47CD-BE8E-CEAC74C3B363}"/>
-    <hyperlink ref="B44" r:id="rId5" xr:uid="{0F69CFC5-0B24-4F31-B875-891BA890CE62}"/>
-    <hyperlink ref="B45" r:id="rId6" xr:uid="{FE4A0414-85E4-4D8E-8AA1-8E8CE82C5573}"/>
-    <hyperlink ref="B46" r:id="rId7" xr:uid="{F9432807-241D-408F-9E48-EC70CB0E724D}"/>
-    <hyperlink ref="B47" r:id="rId8" xr:uid="{D96BBD97-8858-43CC-A927-9B77FAC6F5D5}"/>
-    <hyperlink ref="B48" r:id="rId9" xr:uid="{CC2354DC-E4A0-4E70-92DA-48750C9F89BB}"/>
-    <hyperlink ref="B49" r:id="rId10" xr:uid="{3DA376CC-B235-4B83-AC56-237C9EF9A5F4}"/>
-    <hyperlink ref="B50" r:id="rId11" xr:uid="{403269C5-7867-45F9-BA7A-F90CFCAC358D}"/>
-    <hyperlink ref="B51" r:id="rId12" xr:uid="{D9C3A7B9-EDC0-40DF-A452-33CFDC5DD3FA}"/>
-    <hyperlink ref="B52" r:id="rId13" xr:uid="{0A5C369A-6A06-4B15-B079-1C907BAA529F}"/>
-    <hyperlink ref="B53" r:id="rId14" xr:uid="{3704B0EE-DB23-4B17-BFDA-9014E28D1CEC}"/>
-    <hyperlink ref="B54" r:id="rId15" xr:uid="{72A5E5D8-6507-490D-8BD7-AE0EABF8EFFC}"/>
-    <hyperlink ref="B55" r:id="rId16" xr:uid="{522423DB-F5EA-4B81-92C4-EA5C8EEE055B}"/>
-    <hyperlink ref="B56" r:id="rId17" xr:uid="{67DD3FEC-96DA-4BD5-8CE8-9F197FE9FDBA}"/>
-    <hyperlink ref="B57" r:id="rId18" xr:uid="{A0B571CF-9EF8-43F8-8AA7-5B83EAD52D8E}"/>
-    <hyperlink ref="B58" r:id="rId19" xr:uid="{E567466E-CF0D-43B4-94FD-34B7962C73B4}"/>
-    <hyperlink ref="B59" r:id="rId20" xr:uid="{590B751E-A765-4E7A-B649-23BA933BC046}"/>
-    <hyperlink ref="B60" r:id="rId21" xr:uid="{EF49782F-5874-405A-B249-5FC8371DF888}"/>
-    <hyperlink ref="B61" r:id="rId22" xr:uid="{E602BFB8-0FB8-4522-BEC6-A5301D8422E2}"/>
-    <hyperlink ref="B62" r:id="rId23" xr:uid="{3B849A02-5868-49CF-9AFB-C7C9781E2137}"/>
-    <hyperlink ref="B63" r:id="rId24" xr:uid="{FDC5FB9D-BBD7-4925-8EC0-1D64C64D891A}"/>
-    <hyperlink ref="B22" r:id="rId25" xr:uid="{1CB81E1B-9FF6-49C1-AB2D-84C1C39E735C}"/>
-    <hyperlink ref="B23" r:id="rId26" xr:uid="{5C88A43D-57AA-4D9B-8906-36DEAC2F704D}"/>
-    <hyperlink ref="B24" r:id="rId27" xr:uid="{F528A1B2-1F97-477C-97BC-2E458F2821D6}"/>
-    <hyperlink ref="B25" r:id="rId28" xr:uid="{0985B0BD-1BFB-4F6C-9692-4A76A59AA360}"/>
-    <hyperlink ref="B26" r:id="rId29" xr:uid="{69C2CD9D-3EE9-4034-AE6D-526C49477F40}"/>
-    <hyperlink ref="B27" r:id="rId30" xr:uid="{BF9CAD75-1E6D-4F26-BA76-9ADF79F98A82}"/>
-    <hyperlink ref="B28" r:id="rId31" xr:uid="{FA29263D-C230-48DA-AB3C-FCC1400DA5BF}"/>
-    <hyperlink ref="B29" r:id="rId32" xr:uid="{3A540905-0853-4F11-9C07-8562940567F8}"/>
-    <hyperlink ref="B30" r:id="rId33" xr:uid="{0AC8715E-3935-4B3B-8F11-C4E9A44A3E17}"/>
-    <hyperlink ref="B31" r:id="rId34" xr:uid="{D3E09672-ED99-4BCE-A3F7-FF37E207401C}"/>
-    <hyperlink ref="B32" r:id="rId35" xr:uid="{343FEB2E-1B29-46D6-ABA1-D98D58497121}"/>
-    <hyperlink ref="B33" r:id="rId36" xr:uid="{E7C3DCBD-E1E6-4646-AA98-0C638939AC61}"/>
-    <hyperlink ref="B34" r:id="rId37" xr:uid="{9CF90CAC-9EC1-45BB-902D-4826927BF0DA}"/>
-    <hyperlink ref="B35" r:id="rId38" xr:uid="{27D33285-9EF0-456B-9B9D-1EA1D801235D}"/>
-    <hyperlink ref="B67" r:id="rId39" xr:uid="{BD27887B-01B6-42D2-B5B9-950589C84620}"/>
-    <hyperlink ref="B68" r:id="rId40" xr:uid="{B732E46B-5D11-4E17-B216-106F8DFD2B07}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId41"/>
+  <pageSetup orientation="portrait" r:id="rId122"/>
 </worksheet>
 </file>